--- a/Assets/StreamingAssets/levels/Level4.xlsx
+++ b/Assets/StreamingAssets/levels/Level4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LBstudio\Documents\GitHub\Project\Assets\StreamingAssets\levels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2A1D50D-293E-4BC4-B9B3-B67186AC7933}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C11D5F95-DA64-4A60-8BDD-59AD792C0E27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8904" yWindow="3468" windowWidth="16452" windowHeight="12132" xr2:uid="{C2226A68-D7B0-4D43-ABB2-DEB1751B0BE9}"/>
+    <workbookView xWindow="6396" yWindow="4212" windowWidth="16452" windowHeight="12132" xr2:uid="{C2226A68-D7B0-4D43-ABB2-DEB1751B0BE9}"/>
   </bookViews>
   <sheets>
     <sheet name="Prop" sheetId="1" r:id="rId1"/>
@@ -416,7 +416,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -464,7 +464,7 @@
   <dimension ref="A1:P9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+      <selection activeCell="N3" sqref="N3:O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.6328125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -620,6 +620,9 @@
       </c>
     </row>
     <row r="4" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C4">
+        <v>7</v>
+      </c>
       <c r="D4">
         <v>8</v>
       </c>
@@ -663,9 +666,6 @@
     <row r="5" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>6</v>
-      </c>
-      <c r="C5">
-        <v>7</v>
       </c>
       <c r="D5">
         <v>8</v>

--- a/Assets/StreamingAssets/levels/Level4.xlsx
+++ b/Assets/StreamingAssets/levels/Level4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LBstudio\Documents\GitHub\Project\Assets\StreamingAssets\levels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C11D5F95-DA64-4A60-8BDD-59AD792C0E27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DB54786-66F5-4BDF-8E89-1053DD366FFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6396" yWindow="4212" windowWidth="16452" windowHeight="12132" xr2:uid="{C2226A68-D7B0-4D43-ABB2-DEB1751B0BE9}"/>
+    <workbookView xWindow="12048" yWindow="3420" windowWidth="16452" windowHeight="12132" xr2:uid="{C2226A68-D7B0-4D43-ABB2-DEB1751B0BE9}"/>
   </bookViews>
   <sheets>
     <sheet name="Prop" sheetId="1" r:id="rId1"/>
@@ -50,10 +50,11 @@
     <t>Background</t>
   </si>
   <si>
-    <t>BgTest.png</t>
+    <t>Level5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Level5</t>
+    <t>Bg8.png</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -416,7 +417,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -442,7 +443,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -450,7 +451,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -464,7 +465,7 @@
   <dimension ref="A1:P9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N3" sqref="N3:O7"/>
+      <selection activeCell="T6" sqref="T6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.6328125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -477,7 +478,7 @@
         <v>0</v>
       </c>
       <c r="C1">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>8</v>
@@ -527,7 +528,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D2">
         <v>8</v>
@@ -574,10 +575,7 @@
         <v>0</v>
       </c>
       <c r="B3">
-        <v>9</v>
-      </c>
-      <c r="C3">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D3">
         <v>8</v>
@@ -604,7 +602,7 @@
         <v>9</v>
       </c>
       <c r="L3">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -620,6 +618,9 @@
       </c>
     </row>
     <row r="4" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>15</v>
+      </c>
       <c r="C4">
         <v>7</v>
       </c>
@@ -648,7 +649,7 @@
         <v>9</v>
       </c>
       <c r="L4">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="M4">
         <v>9</v>
@@ -689,19 +690,13 @@
         <v>9</v>
       </c>
       <c r="K5">
+        <v>15</v>
+      </c>
+      <c r="M5">
+        <v>9</v>
+      </c>
+      <c r="O5">
         <v>5</v>
-      </c>
-      <c r="L5">
-        <v>9</v>
-      </c>
-      <c r="M5">
-        <v>9</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
       </c>
       <c r="P5">
         <v>0</v>
@@ -730,33 +725,21 @@
         <v>9</v>
       </c>
       <c r="K6">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="L6">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="M6">
         <v>9</v>
       </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
       <c r="P6">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>9</v>
-      </c>
-      <c r="B7">
-        <v>9</v>
-      </c>
       <c r="C7">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D7">
         <v>8</v>
@@ -780,7 +763,7 @@
         <v>9</v>
       </c>
       <c r="K7">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -799,14 +782,11 @@
       </c>
     </row>
     <row r="8" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>0</v>
-      </c>
       <c r="B8">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D8">
         <v>8</v>
@@ -856,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D9">
         <v>8</v>
